--- a/languageGP/test_problems/problem_1be.xlsx
+++ b/languageGP/test_problems/problem_1be.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data.xlsx" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data.xlsx" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,10 +426,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>12318.77682978194</v>
+        <v>14599.93928764195</v>
       </c>
       <c r="C1" t="n">
-        <v>254.5668000000003</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2">
@@ -437,10 +437,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>695.4855153824629</v>
+        <v>764.2003843087144</v>
       </c>
       <c r="C2" t="n">
-        <v>245.3639401544401</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3">
@@ -448,10 +448,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>512.3884145228725</v>
+        <v>701.4102675799086</v>
       </c>
       <c r="C3" t="n">
-        <v>245.3639401544401</v>
+        <v>625.9533789954338</v>
       </c>
     </row>
     <row r="4">
@@ -459,10 +459,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>250.9027322521201</v>
+        <v>4032.637202739726</v>
       </c>
       <c r="C4" t="n">
-        <v>245.3639401544401</v>
+        <v>625.9533789954338</v>
       </c>
     </row>
     <row r="5">
@@ -470,10 +470,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>412.9588053343345</v>
+        <v>653.8873652968031</v>
       </c>
       <c r="C5" t="n">
-        <v>245.3639401544401</v>
+        <v>625.9533789954338</v>
       </c>
     </row>
     <row r="6">
@@ -481,10 +481,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>314.8608483339734</v>
+        <v>648.6933762557072</v>
       </c>
       <c r="C6" t="n">
-        <v>245.3639401544401</v>
+        <v>625.9533789954338</v>
       </c>
     </row>
     <row r="7">
@@ -492,10 +492,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>326.9505676333556</v>
+        <v>625.9533789954332</v>
       </c>
       <c r="C7" t="n">
-        <v>245.3639401544401</v>
+        <v>625.9533789954338</v>
       </c>
     </row>
     <row r="8">
@@ -503,10 +503,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>262.0605686332013</v>
+        <v>604.3698347031959</v>
       </c>
       <c r="C8" t="n">
-        <v>245.3639401544401</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="9">
@@ -514,10 +514,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>251.7900348591128</v>
+        <v>168662.2774420092</v>
       </c>
       <c r="C9" t="n">
-        <v>245.3639401544401</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="10">
@@ -525,10 +525,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>455.0621145528924</v>
+        <v>334.1582648401829</v>
       </c>
       <c r="C10" t="n">
-        <v>245.3639401544401</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="11">
@@ -536,10 +536,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>251.0900398460829</v>
+        <v>333.3925589041099</v>
       </c>
       <c r="C11" t="n">
-        <v>245.3639401544401</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="12">
@@ -547,10 +547,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>393.6895525733556</v>
+        <v>363.5970356164386</v>
       </c>
       <c r="C12" t="n">
-        <v>245.3639401544401</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="13">
@@ -558,10 +558,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>399.5288010521202</v>
+        <v>304.6680821917812</v>
       </c>
       <c r="C13" t="n">
-        <v>245.3639401544401</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="14">
@@ -569,10 +569,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>397.6040968127379</v>
+        <v>355.8236356164385</v>
       </c>
       <c r="C14" t="n">
-        <v>245.3639401544401</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="15">
@@ -580,10 +580,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>379.5697904536628</v>
+        <v>322.0971205479456</v>
       </c>
       <c r="C15" t="n">
-        <v>245.3639401544401</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="16">
@@ -591,10 +591,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>486.500012509428</v>
+        <v>322.0971205479456</v>
       </c>
       <c r="C16" t="n">
-        <v>245.3639401544401</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="17">
@@ -602,10 +602,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>311.0571146930468</v>
+        <v>344.0157972602742</v>
       </c>
       <c r="C17" t="n">
-        <v>245.3639401544401</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="18">
@@ -613,10 +613,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>363.8543546930468</v>
+        <v>337.8308246392697</v>
       </c>
       <c r="C18" t="n">
-        <v>245.3639401544401</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="19">
@@ -624,10 +624,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>293.5398668127379</v>
+        <v>304.6680821917812</v>
       </c>
       <c r="C19" t="n">
-        <v>245.3639401544401</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="20">
@@ -635,10 +635,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>500.480162900576</v>
+        <v>334.1325589041098</v>
       </c>
       <c r="C20" t="n">
-        <v>67.32000000000005</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="21">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>200.0173036930528</v>
+        <v>304.6680821917812</v>
       </c>
       <c r="C21" t="n">
-        <v>67.32000000000005</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="22">
@@ -657,10 +657,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>497.4197455284463</v>
+        <v>672.630678210046</v>
       </c>
       <c r="C22" t="n">
-        <v>67.32000000000005</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="23">
@@ -668,10 +668,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>580.2725999999965</v>
+        <v>314.2781205479455</v>
       </c>
       <c r="C23" t="n">
-        <v>67.32000000000005</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="24">
@@ -679,10 +679,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>86.71642935636912</v>
+        <v>331.7613534246578</v>
       </c>
       <c r="C24" t="n">
-        <v>67.32000000000005</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="25">
@@ -690,10 +690,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>508.6601900000003</v>
+        <v>375.2252739726028</v>
       </c>
       <c r="C25" t="n">
-        <v>67.32000000000005</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="26">
@@ -701,10 +701,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>118.1957100000008</v>
+        <v>461.7200127853882</v>
       </c>
       <c r="C26" t="n">
-        <v>67.32000000000005</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="27">
@@ -712,10 +712,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>225.1641100000006</v>
+        <v>13534529.26900002</v>
       </c>
       <c r="C27" t="n">
-        <v>67.32000000000005</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="28">
@@ -723,10 +723,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>219.8461785555577</v>
+        <v>304.6680821917812</v>
       </c>
       <c r="C28" t="n">
-        <v>67.32000000000005</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="29">
@@ -734,10 +734,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>281.7475447692333</v>
+        <v>351.5615972602742</v>
       </c>
       <c r="C29" t="n">
-        <v>67.32000000000005</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="30">
@@ -745,10 +745,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>234.0212726829275</v>
+        <v>334.1325589041098</v>
       </c>
       <c r="C30" t="n">
-        <v>67.32000000000005</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="31">
@@ -756,10 +756,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>82.10298000000056</v>
+        <v>322.0971205479455</v>
       </c>
       <c r="C31" t="n">
-        <v>27</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="32">
@@ -767,10 +767,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>330.6281756466794</v>
+        <v>347.3415972602741</v>
       </c>
       <c r="C32" t="n">
-        <v>27</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="33">
@@ -778,10 +778,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>467.82428</v>
+        <v>318.2259205479455</v>
       </c>
       <c r="C33" t="n">
-        <v>27</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="34">
@@ -789,10 +789,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>289.1157100000116</v>
+        <v>332.4813589041099</v>
       </c>
       <c r="C34" t="n">
-        <v>27</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="35">
@@ -800,10 +800,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>36.93979000000001</v>
+        <v>318.5747205479456</v>
       </c>
       <c r="C35" t="n">
-        <v>27</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="36">
@@ -811,10 +811,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>987.3904553000226</v>
+        <v>349.5615972602741</v>
       </c>
       <c r="C36" t="n">
-        <v>27</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="37">
@@ -822,10 +822,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>36.76313999999999</v>
+        <v>332.4813589041099</v>
       </c>
       <c r="C37" t="n">
-        <v>27</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="38">
@@ -833,10 +833,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>342.22375</v>
+        <v>4179625950180.266</v>
       </c>
       <c r="C38" t="n">
-        <v>27</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="39">
@@ -844,10 +844,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>176.27799</v>
+        <v>304.6680821917812</v>
       </c>
       <c r="C39" t="n">
-        <v>27</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="40">
@@ -855,10 +855,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>55.67596494845356</v>
+        <v>330.7851589041099</v>
       </c>
       <c r="C40" t="n">
-        <v>27</v>
+        <v>304.6680821917808</v>
       </c>
     </row>
     <row r="41">
@@ -866,10 +866,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>203.7801475306161</v>
+        <v>274.7836054794523</v>
       </c>
       <c r="C41" t="n">
-        <v>27</v>
+        <v>42.70410958904108</v>
       </c>
     </row>
     <row r="42">
@@ -877,10 +877,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>332.92974</v>
+        <v>89.14570410958895</v>
       </c>
       <c r="C42" t="n">
-        <v>27</v>
+        <v>42.70410958904108</v>
       </c>
     </row>
     <row r="43">
@@ -888,10 +888,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>480.2159099999835</v>
+        <v>59.92162739726022</v>
       </c>
       <c r="C43" t="n">
-        <v>27</v>
+        <v>42.70410958904108</v>
       </c>
     </row>
     <row r="44">
@@ -899,10 +899,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>38.267</v>
+        <v>82.99594520547944</v>
       </c>
       <c r="C44" t="n">
-        <v>27</v>
+        <v>42.70410958904108</v>
       </c>
     </row>
     <row r="45">
@@ -910,10 +910,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>36.75064999999999</v>
+        <v>79.93834520547937</v>
       </c>
       <c r="C45" t="n">
-        <v>27</v>
+        <v>42.70410958904108</v>
       </c>
     </row>
     <row r="46">
@@ -921,10 +921,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>248.4392553454545</v>
+        <v>61.50122739726017</v>
       </c>
       <c r="C46" t="n">
-        <v>27</v>
+        <v>42.70410958904108</v>
       </c>
     </row>
     <row r="47">
@@ -932,10 +932,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>32.6020785</v>
+        <v>233.2083844748859</v>
       </c>
       <c r="C47" t="n">
-        <v>27</v>
+        <v>42.70410958904108</v>
       </c>
     </row>
     <row r="48">
@@ -943,10 +943,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>157.5036192178974</v>
+        <v>80.6471452054794</v>
       </c>
       <c r="C48" t="n">
-        <v>27</v>
+        <v>42.70410958904108</v>
       </c>
     </row>
     <row r="49">
@@ -954,10 +954,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>100.4979768</v>
+        <v>99.79306301369857</v>
       </c>
       <c r="C49" t="n">
-        <v>27</v>
+        <v>42.70410958904108</v>
       </c>
     </row>
     <row r="50">
@@ -965,10 +965,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>57.91875626134301</v>
+        <v>100.1418630136986</v>
       </c>
       <c r="C50" t="n">
-        <v>27</v>
+        <v>42.70410958904108</v>
       </c>
     </row>
     <row r="51">
@@ -976,10 +976,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>144.00889</v>
+        <v>78.47458977315063</v>
       </c>
       <c r="C51" t="n">
-        <v>27</v>
+        <v>42.70410958904108</v>
       </c>
     </row>
     <row r="52">
@@ -987,10 +987,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>813.4284519855248</v>
+        <v>321.4072561461187</v>
       </c>
       <c r="C52" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="53">
@@ -998,10 +998,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>200.4265482956574</v>
+        <v>56.0822782831051</v>
       </c>
       <c r="C53" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="54">
@@ -1009,10 +1009,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>93.49454248120301</v>
+        <v>1408.653961863009</v>
       </c>
       <c r="C54" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="55">
@@ -1020,10 +1020,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>120.9479656</v>
+        <v>44.65836186301378</v>
       </c>
       <c r="C55" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="56">
@@ -1031,10 +1031,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>320.9359203556188</v>
+        <v>42.30956186301378</v>
       </c>
       <c r="C56" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="57">
@@ -1042,10 +1042,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>210.7819199999999</v>
+        <v>63.90537932420099</v>
       </c>
       <c r="C57" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="58">
@@ -1053,10 +1053,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>246.653894</v>
+        <v>83.40119678538825</v>
       </c>
       <c r="C58" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="59">
@@ -1064,10 +1064,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>203.1718564516129</v>
+        <v>64.03417932420099</v>
       </c>
       <c r="C59" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="60">
@@ -1075,10 +1075,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>227.2299399999993</v>
+        <v>62.60297932420109</v>
       </c>
       <c r="C60" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="61">
@@ -1086,10 +1086,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>42809.82788175681</v>
+        <v>22.71374440182657</v>
       </c>
       <c r="C61" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="62">
@@ -1097,10 +1097,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>238.1257548797324</v>
+        <v>122.505424803653</v>
       </c>
       <c r="C62" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="63">
@@ -1108,10 +1108,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>33.51327000000001</v>
+        <v>44.30956186301378</v>
       </c>
       <c r="C63" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="64">
@@ -1119,10 +1119,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>135.3325799999998</v>
+        <v>15.39867240182657</v>
       </c>
       <c r="C64" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="65">
@@ -1130,10 +1130,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>238.9639737641329</v>
+        <v>42.29232402888088</v>
       </c>
       <c r="C65" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="66">
@@ -1141,10 +1141,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>267.5480499999999</v>
+        <v>22.71374440182657</v>
       </c>
       <c r="C66" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="67">
@@ -1152,10 +1152,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>40.50421664529915</v>
+        <v>317.9188185388129</v>
       </c>
       <c r="C67" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="68">
@@ -1163,10 +1163,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>35.862581</v>
+        <v>59.98456977421726</v>
       </c>
       <c r="C68" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="69">
@@ -1174,10 +1174,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>127.28255</v>
+        <v>44.42076186301379</v>
       </c>
       <c r="C69" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="70">
@@ -1185,10 +1185,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>33.04433</v>
+        <v>44.30956186301378</v>
       </c>
       <c r="C70" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="71">
@@ -1196,10 +1196,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>135.8311127772848</v>
+        <v>22.71374440182657</v>
       </c>
       <c r="C71" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="72">
@@ -1207,10 +1207,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>35.15123331658292</v>
+        <v>24.36494440182657</v>
       </c>
       <c r="C72" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="73">
@@ -1218,10 +1218,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>310.3057912550108</v>
+        <v>2.769126940639353</v>
       </c>
       <c r="C73" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="74">
@@ -1229,10 +1229,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>346.6440192347857</v>
+        <v>2260.089561863014</v>
       </c>
       <c r="C74" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="75">
@@ -1240,10 +1240,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>284.9145829311844</v>
+        <v>66.12537932420101</v>
       </c>
       <c r="C75" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="76">
@@ -1251,10 +1251,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>35.55807</v>
+        <v>41.96076186301378</v>
       </c>
       <c r="C76" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="77">
@@ -1262,10 +1262,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>50.13486999999999</v>
+        <v>22.36494440182657</v>
       </c>
       <c r="C77" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="78">
@@ -1273,10 +1273,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>34.15326777777777</v>
+        <v>54.94737932420099</v>
       </c>
       <c r="C78" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="79">
@@ -1284,10 +1284,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>246.5215999999968</v>
+        <v>59.442979324201</v>
       </c>
       <c r="C79" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="80">
@@ -1295,10 +1295,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>149.84517</v>
+        <v>80.23628252054804</v>
       </c>
       <c r="C80" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="81">
@@ -1306,10 +1306,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>39.55205084747804</v>
+        <v>73.93208880365306</v>
       </c>
       <c r="C81" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="82">
@@ -1317,10 +1317,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>185.7865859697368</v>
+        <v>2.769126940639353</v>
       </c>
       <c r="C82" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="83">
@@ -1328,10 +1328,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>366.469886</v>
+        <v>66.12537932420102</v>
       </c>
       <c r="C83" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="84">
@@ -1339,10 +1339,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>407.9232166666635</v>
+        <v>2.769126940639353</v>
       </c>
       <c r="C84" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="85">
@@ -1350,10 +1350,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>36.49164422535211</v>
+        <v>22.71374440182657</v>
       </c>
       <c r="C85" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="86">
@@ -1361,10 +1361,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>81.21510000000001</v>
+        <v>2.769126940639353</v>
       </c>
       <c r="C86" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="87">
@@ -1372,10 +1372,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>50.15058526315779</v>
+        <v>24.36494440182657</v>
       </c>
       <c r="C87" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="88">
@@ -1383,10 +1383,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>33.87072</v>
+        <v>61.65657932420099</v>
       </c>
       <c r="C88" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="89">
@@ -1394,10 +1394,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>346.6033832204965</v>
+        <v>42.72661073972611</v>
       </c>
       <c r="C89" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="90">
@@ -1405,10 +1405,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>234.17775</v>
+        <v>24.36494440182657</v>
       </c>
       <c r="C90" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="91">
@@ -1416,10 +1416,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>193.7050842253521</v>
+        <v>41.96076186301378</v>
       </c>
       <c r="C91" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="92">
@@ -1427,10 +1427,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>852.700897617717</v>
+        <v>66.25417932420099</v>
       </c>
       <c r="C92" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="93">
@@ -1438,10 +1438,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>94.20792</v>
+        <v>67.37657932420099</v>
       </c>
       <c r="C93" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="94">
@@ -1449,10 +1449,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>140.7400157497038</v>
+        <v>44.33736186301378</v>
       </c>
       <c r="C94" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="95">
@@ -1460,10 +1460,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>48.61384000000002</v>
+        <v>20.39374440182657</v>
       </c>
       <c r="C95" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="96">
@@ -1471,10 +1471,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>236.89997098592</v>
+        <v>2.769126940639353</v>
       </c>
       <c r="C96" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="97">
@@ -1482,10 +1482,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>38.16091416503406</v>
+        <v>22.71374440182657</v>
       </c>
       <c r="C97" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="98">
@@ -1493,10 +1493,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>1392.377438415376</v>
+        <v>24.71374440182657</v>
       </c>
       <c r="C98" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="99">
@@ -1504,10 +1504,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>33.78453524428606</v>
+        <v>241.6677070684932</v>
       </c>
       <c r="C99" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="100">
@@ -1515,10 +1515,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>64.53332610470706</v>
+        <v>112.7556330958905</v>
       </c>
       <c r="C100" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="101">
@@ -1526,10 +1526,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>203.6501924293746</v>
+        <v>59.73417932420102</v>
       </c>
       <c r="C101" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="102">
@@ -1537,10 +1537,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>678.3175900000065</v>
+        <v>18.49088463171162</v>
       </c>
       <c r="C102" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="103">
@@ -1548,10 +1548,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>285.4481242253522</v>
+        <v>41.80116186301379</v>
       </c>
       <c r="C103" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="104">
@@ -1559,10 +1559,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>205.839099455021</v>
+        <v>40.90956186301378</v>
       </c>
       <c r="C104" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="105">
@@ -1570,10 +1570,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>423.5319135483884</v>
+        <v>41.7119618630138</v>
       </c>
       <c r="C105" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="106">
@@ -1581,10 +1581,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>33.74373730751063</v>
+        <v>64.602979324201</v>
       </c>
       <c r="C106" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="107">
@@ -1592,10 +1592,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>41.29095</v>
+        <v>37.65947981173173</v>
       </c>
       <c r="C107" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="108">
@@ -1603,10 +1603,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>36.98306198805839</v>
+        <v>53.32700827397266</v>
       </c>
       <c r="C108" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="109">
@@ -1614,10 +1614,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>36.378</v>
+        <v>24.36494440182657</v>
       </c>
       <c r="C109" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="110">
@@ -1625,10 +1625,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>37.76233271799224</v>
+        <v>85.5011967853882</v>
       </c>
       <c r="C110" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="111">
@@ -1636,10 +1636,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>37.13641944705883</v>
+        <v>42.04956186301381</v>
       </c>
       <c r="C111" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="112">
@@ -1647,10 +1647,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>37.7051087</v>
+        <v>57.20497932420099</v>
       </c>
       <c r="C112" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="113">
@@ -1658,10 +1658,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>80.51082000000031</v>
+        <v>30.92976186301378</v>
       </c>
       <c r="C113" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="114">
@@ -1669,10 +1669,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>36.7364628</v>
+        <v>37.01916186301378</v>
       </c>
       <c r="C114" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="115">
@@ -1680,10 +1680,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>233.0734924615395</v>
+        <v>2.769126940639353</v>
       </c>
       <c r="C115" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="116">
@@ -1691,10 +1691,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>218.4503200000011</v>
+        <v>43.96076186301379</v>
       </c>
       <c r="C116" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="117">
@@ -1702,10 +1702,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>248.3877599999987</v>
+        <v>279.9167454246576</v>
       </c>
       <c r="C117" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="118">
@@ -1713,10 +1713,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>281.1903</v>
+        <v>22.71374440182657</v>
       </c>
       <c r="C118" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="119">
@@ -1724,10 +1724,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>331.38981</v>
+        <v>44.30956186301378</v>
       </c>
       <c r="C119" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="120">
@@ -1735,10 +1735,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>539.2080311150246</v>
+        <v>44.30956186301378</v>
       </c>
       <c r="C120" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="121">
@@ -1746,10 +1746,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>213.5321788752639</v>
+        <v>69.77657932420101</v>
       </c>
       <c r="C121" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="122">
@@ -1757,10 +1757,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>59.76275111617326</v>
+        <v>37.33436186301378</v>
       </c>
       <c r="C122" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="123">
@@ -1768,10 +1768,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>105.6814600000007</v>
+        <v>2.769126940639353</v>
       </c>
       <c r="C123" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="124">
@@ -1779,10 +1779,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>382.4766799999999</v>
+        <v>42.30956186301378</v>
       </c>
       <c r="C124" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="125">
@@ -1790,10 +1790,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>291.5480399999996</v>
+        <v>22.71374440182657</v>
       </c>
       <c r="C125" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="126">
@@ -1801,10 +1801,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>644.59146</v>
+        <v>40.18956186301378</v>
       </c>
       <c r="C126" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="127">
@@ -1812,10 +1812,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>35.52355875706214</v>
+        <v>60.81557932420101</v>
       </c>
       <c r="C127" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="128">
@@ -1823,10 +1823,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>230.81857</v>
+        <v>77.62759678538821</v>
       </c>
       <c r="C128" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="129">
@@ -1834,10 +1834,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>288.5880787</v>
+        <v>44.65836186301379</v>
       </c>
       <c r="C129" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="130">
@@ -1845,10 +1845,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>133.95649</v>
+        <v>51.456179324201</v>
       </c>
       <c r="C130" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="131">
@@ -1856,10 +1856,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>39.63304</v>
+        <v>26.23614440182656</v>
       </c>
       <c r="C131" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="132">
@@ -1867,10 +1867,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>348.16669</v>
+        <v>26.23614440182656</v>
       </c>
       <c r="C132" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="133">
@@ -1878,10 +1878,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>440.8308700000021</v>
+        <v>2859.076579324201</v>
       </c>
       <c r="C133" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="134">
@@ -1889,10 +1889,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>40.40463</v>
+        <v>2.769126940639353</v>
       </c>
       <c r="C134" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="135">
@@ -1900,10 +1900,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>52.701</v>
+        <v>46.30956186301378</v>
       </c>
       <c r="C135" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="136">
@@ -1911,10 +1911,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>34.07975</v>
+        <v>137.5925550684933</v>
       </c>
       <c r="C136" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="137">
@@ -1922,10 +1922,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>38.3847</v>
+        <v>19.70174440182657</v>
       </c>
       <c r="C137" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="138">
@@ -1933,10 +1933,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>40.16616407407408</v>
+        <v>103.2568165698958</v>
       </c>
       <c r="C138" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="139">
@@ -1944,10 +1944,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>143.7059681778197</v>
+        <v>22.71374440182657</v>
       </c>
       <c r="C139" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="140">
@@ -1955,10 +1955,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>41.65686000000001</v>
+        <v>102.1247045691561</v>
       </c>
       <c r="C140" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="141">
@@ -1966,10 +1966,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>37.72838710420383</v>
+        <v>2.769126940639353</v>
       </c>
       <c r="C141" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="142">
@@ -1977,10 +1977,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>35.1905</v>
+        <v>42.65836186301378</v>
       </c>
       <c r="C142" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="143">
@@ -1988,10 +1988,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>40.94410918104451</v>
+        <v>112.5073264657535</v>
       </c>
       <c r="C143" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="144">
@@ -1999,10 +1999,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>37.11628481697774</v>
+        <v>22.71374440182657</v>
       </c>
       <c r="C144" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="145">
@@ -2010,10 +2010,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>186.4148022544649</v>
+        <v>165.7395453150686</v>
       </c>
       <c r="C145" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="146">
@@ -2021,10 +2021,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>35.36047</v>
+        <v>22.36494440182657</v>
       </c>
       <c r="C146" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="147">
@@ -2032,10 +2032,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>69.42249299999987</v>
+        <v>22.36494440182657</v>
       </c>
       <c r="C147" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="148">
@@ -2043,10 +2043,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>127.09985</v>
+        <v>40.54076186301378</v>
       </c>
       <c r="C148" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="149">
@@ -2054,10 +2054,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>422.0308700000009</v>
+        <v>78.30538845662107</v>
       </c>
       <c r="C149" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="150">
@@ -2065,10 +2065,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>223.7245760026105</v>
+        <v>22.71374440182657</v>
       </c>
       <c r="C150" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="151">
@@ -2076,10 +2076,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>34.69705662579957</v>
+        <v>21.22494440182657</v>
       </c>
       <c r="C151" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="152">
@@ -2087,10 +2087,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>400.4752400000025</v>
+        <v>42.65836186301378</v>
       </c>
       <c r="C152" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="153">
@@ -2098,10 +2098,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>728.1850429545455</v>
+        <v>66.25417932420102</v>
       </c>
       <c r="C153" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="154">
@@ -2109,10 +2109,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>42.89190075412439</v>
+        <v>24.36494440182657</v>
       </c>
       <c r="C154" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="155">
@@ -2120,10 +2120,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>266.6395635532148</v>
+        <v>64.25417932420099</v>
       </c>
       <c r="C155" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="156">
@@ -2131,10 +2131,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>126.14304</v>
+        <v>41.71196186301378</v>
       </c>
       <c r="C156" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="157">
@@ -2142,10 +2142,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>281.94008</v>
+        <v>42.65836186301383</v>
       </c>
       <c r="C157" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="158">
@@ -2153,10 +2153,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>379.7621357142821</v>
+        <v>44.65836186301379</v>
       </c>
       <c r="C158" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="159">
@@ -2164,10 +2164,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>58.00669026519643</v>
+        <v>41.86854451141562</v>
       </c>
       <c r="C159" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="160">
@@ -2175,10 +2175,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>167.5129897727273</v>
+        <v>44.3095618630138</v>
       </c>
       <c r="C160" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="161">
@@ -2186,10 +2186,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>413.2288656</v>
+        <v>71.27519559817364</v>
       </c>
       <c r="C161" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="162">
@@ -2197,10 +2197,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>3016.27653373</v>
+        <v>2897.960761863013</v>
       </c>
       <c r="C162" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="163">
@@ -2208,10 +2208,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>102.13329</v>
+        <v>22.36494440182657</v>
       </c>
       <c r="C163" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="164">
@@ -2219,10 +2219,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>40.21082</v>
+        <v>65.90537932420099</v>
       </c>
       <c r="C164" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="165">
@@ -2230,10 +2230,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>7326.634033616315</v>
+        <v>83.84999678538821</v>
       </c>
       <c r="C165" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="166">
@@ -2241,10 +2241,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>218.6861647030726</v>
+        <v>56.82997932420099</v>
       </c>
       <c r="C166" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="167">
@@ -2252,10 +2252,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>431.260566</v>
+        <v>44.65836186301379</v>
       </c>
       <c r="C167" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="168">
@@ -2263,10 +2263,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>74.21394251879637</v>
+        <v>22.71374440182657</v>
       </c>
       <c r="C168" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="169">
@@ -2274,10 +2274,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>37.63368444444445</v>
+        <v>44.30956186301378</v>
       </c>
       <c r="C169" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="170">
@@ -2285,10 +2285,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>73.84140000000031</v>
+        <v>21.93374440182657</v>
       </c>
       <c r="C170" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="171">
@@ -2296,10 +2296,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>112.22136</v>
+        <v>2.769126940639353</v>
       </c>
       <c r="C171" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="172">
@@ -2307,10 +2307,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>99.24521440000073</v>
+        <v>24.71374440182657</v>
       </c>
       <c r="C172" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="173">
@@ -2318,10 +2318,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>246.1944071270077</v>
+        <v>77.12659678538822</v>
       </c>
       <c r="C173" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="174">
@@ -2329,10 +2329,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>191.424909999999</v>
+        <v>44.65836186301379</v>
       </c>
       <c r="C174" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="175">
@@ -2340,10 +2340,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>578.0561294559998</v>
+        <v>44.30956186301378</v>
       </c>
       <c r="C175" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="176">
@@ -2351,10 +2351,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>36.85413</v>
+        <v>43.96076186301378</v>
       </c>
       <c r="C176" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="177">
@@ -2362,10 +2362,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>311.2319784721425</v>
+        <v>42.65836186301379</v>
       </c>
       <c r="C177" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="178">
@@ -2373,10 +2373,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>39.622288</v>
+        <v>89.53441424657545</v>
       </c>
       <c r="C178" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="179">
@@ -2384,10 +2384,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>68.3197809803916</v>
+        <v>104.5210142465754</v>
       </c>
       <c r="C179" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="180">
@@ -2395,10 +2395,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>32.92623056562328</v>
+        <v>22.71374440182657</v>
       </c>
       <c r="C180" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="181">
@@ -2406,10 +2406,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>79.04747999999999</v>
+        <v>22.36494440182657</v>
       </c>
       <c r="C181" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="182">
@@ -2417,10 +2417,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>134.41721</v>
+        <v>133.2616317077626</v>
       </c>
       <c r="C182" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="183">
@@ -2428,10 +2428,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>141.4388499999991</v>
+        <v>38.53536186301378</v>
       </c>
       <c r="C183" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="184">
@@ -2439,10 +2439,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>58.05663428163437</v>
+        <v>339.1722102648403</v>
       </c>
       <c r="C184" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="185">
@@ -2450,10 +2450,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>119.6193485714298</v>
+        <v>161.7131188310504</v>
       </c>
       <c r="C185" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="186">
@@ -2461,10 +2461,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>257.6136323300696</v>
+        <v>46.18076186301378</v>
       </c>
       <c r="C186" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="187">
@@ -2472,10 +2472,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>51.51309202179978</v>
+        <v>22.36494440182657</v>
       </c>
       <c r="C187" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="188">
@@ -2483,10 +2483,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>39.98670554320447</v>
+        <v>22.71374440182657</v>
       </c>
       <c r="C188" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="189">
@@ -2494,10 +2494,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>238.3544496</v>
+        <v>22.71374440182657</v>
       </c>
       <c r="C189" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="190">
@@ -2505,10 +2505,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>36.16619545454546</v>
+        <v>42.3095618630138</v>
       </c>
       <c r="C190" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="191">
@@ -2516,10 +2516,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>34.24232</v>
+        <v>22.71374440182657</v>
       </c>
       <c r="C191" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="192">
@@ -2527,10 +2527,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>36.45761</v>
+        <v>22.71374440182657</v>
       </c>
       <c r="C192" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="193">
@@ -2538,10 +2538,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>96.27235000000056</v>
+        <v>38.58556047532947</v>
       </c>
       <c r="C193" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="194">
@@ -2549,10 +2549,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>34.55625999999999</v>
+        <v>2.769126940639353</v>
       </c>
       <c r="C194" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="195">
@@ -2560,10 +2560,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>33.38195</v>
+        <v>46.18076186301378</v>
       </c>
       <c r="C195" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="196">
@@ -2571,10 +2571,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>229.6427238162155</v>
+        <v>49.70316186301378</v>
       </c>
       <c r="C196" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="197">
@@ -2582,10 +2582,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>249.2957421783235</v>
+        <v>57.135379324201</v>
       </c>
       <c r="C197" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="198">
@@ -2593,10 +2593,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>37.25053</v>
+        <v>26.23614440182656</v>
       </c>
       <c r="C198" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="199">
@@ -2604,10 +2604,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>76.96755207362766</v>
+        <v>35.67396186301378</v>
       </c>
       <c r="C199" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
     <row r="200">
@@ -2615,10 +2615,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>265.0890917094861</v>
+        <v>43.45706151598182</v>
       </c>
       <c r="C200" t="n">
-        <v>27</v>
+        <v>2.769126940639353</v>
       </c>
     </row>
   </sheetData>

--- a/languageGP/test_problems/problem_1be.xlsx
+++ b/languageGP/test_problems/problem_1be.xlsx
@@ -426,10 +426,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>14599.93928764195</v>
+        <v>213344.9559043644</v>
       </c>
       <c r="C1" t="n">
-        <v>699</v>
+        <v>556.0799999999999</v>
       </c>
     </row>
     <row r="2">
@@ -437,10 +437,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>764.2003843087144</v>
+        <v>594.5844330914376</v>
       </c>
       <c r="C2" t="n">
-        <v>699</v>
+        <v>463.08</v>
       </c>
     </row>
     <row r="3">
@@ -448,10 +448,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>701.4102675799086</v>
+        <v>489.9612000000003</v>
       </c>
       <c r="C3" t="n">
-        <v>625.9533789954338</v>
+        <v>436.08</v>
       </c>
     </row>
     <row r="4">
@@ -459,10 +459,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4032.637202739726</v>
+        <v>3610.982784</v>
       </c>
       <c r="C4" t="n">
-        <v>625.9533789954338</v>
+        <v>436.08</v>
       </c>
     </row>
     <row r="5">
@@ -470,10 +470,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>653.8873652968031</v>
+        <v>415.1628739994768</v>
       </c>
       <c r="C5" t="n">
-        <v>625.9533789954338</v>
+        <v>89.3235894040987</v>
       </c>
     </row>
     <row r="6">
@@ -481,10 +481,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>648.6933762557072</v>
+        <v>141.0516574759718</v>
       </c>
       <c r="C6" t="n">
-        <v>625.9533789954338</v>
+        <v>4.695369163695545</v>
       </c>
     </row>
     <row r="7">
@@ -492,10 +492,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>625.9533789954332</v>
+        <v>93.02426224647988</v>
       </c>
       <c r="C7" t="n">
-        <v>625.9533789954338</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="8">
@@ -503,10 +503,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>604.3698347031959</v>
+        <v>19.79225006651121</v>
       </c>
       <c r="C8" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="9">
@@ -514,10 +514,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>168662.2774420092</v>
+        <v>33.8880411882087</v>
       </c>
       <c r="C9" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="10">
@@ -525,10 +525,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>334.1582648401829</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C10" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="11">
@@ -536,10 +536,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>333.3925589041099</v>
+        <v>11.84689690433992</v>
       </c>
       <c r="C11" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="12">
@@ -547,10 +547,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>363.5970356164386</v>
+        <v>2.16902108020691</v>
       </c>
       <c r="C12" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="13">
@@ -558,10 +558,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>304.6680821917812</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C13" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="14">
@@ -569,10 +569,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>355.8236356164385</v>
+        <v>16.01973821957838</v>
       </c>
       <c r="C14" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="15">
@@ -580,10 +580,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>322.0971205479456</v>
+        <v>25.03681298612621</v>
       </c>
       <c r="C15" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="16">
@@ -591,10 +591,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>322.0971205479456</v>
+        <v>6.173733407730342</v>
       </c>
       <c r="C16" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="17">
@@ -602,10 +602,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>344.0157972602742</v>
+        <v>25194.82659127052</v>
       </c>
       <c r="C17" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="18">
@@ -613,10 +613,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>337.8308246392697</v>
+        <v>1.187509622750345</v>
       </c>
       <c r="C18" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="19">
@@ -624,10 +624,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>304.6680821917812</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C19" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="20">
@@ -635,10 +635,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>334.1325589041098</v>
+        <v>261.2509105053884</v>
       </c>
       <c r="C20" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="21">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>304.6680821917812</v>
+        <v>16.01973821957838</v>
       </c>
       <c r="C21" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="22">
@@ -657,10 +657,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>672.630678210046</v>
+        <v>138.6249869338654</v>
       </c>
       <c r="C22" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="23">
@@ -668,10 +668,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>314.2781205479455</v>
+        <v>34.34463083630447</v>
       </c>
       <c r="C23" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="24">
@@ -679,10 +679,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>331.7613534246578</v>
+        <v>5.88868950529132</v>
       </c>
       <c r="C24" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="25">
@@ -690,10 +690,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>375.2252739726028</v>
+        <v>7.410805280927556</v>
       </c>
       <c r="C25" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="26">
@@ -701,10 +701,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>461.7200127853882</v>
+        <v>10.7913577308104</v>
       </c>
       <c r="C26" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="27">
@@ -712,10 +712,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>13534529.26900002</v>
+        <v>18.51563623811018</v>
       </c>
       <c r="C27" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="28">
@@ -723,10 +723,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>304.6680821917812</v>
+        <v>1449.938040791004</v>
       </c>
       <c r="C28" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="29">
@@ -734,10 +734,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>351.5615972602742</v>
+        <v>31.29234956505689</v>
       </c>
       <c r="C29" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="30">
@@ -745,10 +745,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>334.1325589041098</v>
+        <v>16.86893821957838</v>
       </c>
       <c r="C30" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="31">
@@ -756,10 +756,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>322.0971205479455</v>
+        <v>33.40404560285229</v>
       </c>
       <c r="C31" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="32">
@@ -767,10 +767,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>347.3415972602741</v>
+        <v>63.96580843365224</v>
       </c>
       <c r="C32" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="33">
@@ -778,10 +778,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>318.2259205479455</v>
+        <v>13.66132832568415</v>
       </c>
       <c r="C33" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="34">
@@ -789,10 +789,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>332.4813589041099</v>
+        <v>19.10242114640765</v>
       </c>
       <c r="C34" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="35">
@@ -800,10 +800,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>318.5747205479456</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C35" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="36">
@@ -811,10 +811,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>349.5615972602741</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C36" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="37">
@@ -822,10 +822,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>332.4813589041099</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C37" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="38">
@@ -833,10 +833,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>4179625950180.266</v>
+        <v>15.9719247448793</v>
       </c>
       <c r="C38" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="39">
@@ -844,10 +844,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>304.6680821917812</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C39" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="40">
@@ -855,10 +855,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>330.7851589041099</v>
+        <v>31.0243615405096</v>
       </c>
       <c r="C40" t="n">
-        <v>304.6680821917808</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="41">
@@ -866,10 +866,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>274.7836054794523</v>
+        <v>51.26933821957839</v>
       </c>
       <c r="C41" t="n">
-        <v>42.70410958904108</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="42">
@@ -877,10 +877,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>89.14570410958895</v>
+        <v>15.97006153725412</v>
       </c>
       <c r="C42" t="n">
-        <v>42.70410958904108</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="43">
@@ -888,10 +888,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>59.92162739726022</v>
+        <v>58.80778700006625</v>
       </c>
       <c r="C43" t="n">
-        <v>42.70410958904108</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="44">
@@ -899,10 +899,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>82.99594520547944</v>
+        <v>1728.128248041877</v>
       </c>
       <c r="C44" t="n">
-        <v>42.70410958904108</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="45">
@@ -910,10 +910,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>79.93834520547937</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C45" t="n">
-        <v>42.70410958904108</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="46">
@@ -921,10 +921,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>61.50122739726017</v>
+        <v>17.02013821957838</v>
       </c>
       <c r="C46" t="n">
-        <v>42.70410958904108</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="47">
@@ -932,10 +932,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>233.2083844748859</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C47" t="n">
-        <v>42.70410958904108</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="48">
@@ -943,10 +943,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>80.6471452054794</v>
+        <v>5.51519682236449</v>
       </c>
       <c r="C48" t="n">
-        <v>42.70410958904108</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="49">
@@ -954,10 +954,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>99.79306301369857</v>
+        <v>1.039264982645936</v>
       </c>
       <c r="C49" t="n">
-        <v>42.70410958904108</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="50">
@@ -965,10 +965,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>100.1418630136986</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C50" t="n">
-        <v>42.70410958904108</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="51">
@@ -976,10 +976,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>78.47458977315063</v>
+        <v>1.622629755075161</v>
       </c>
       <c r="C51" t="n">
-        <v>42.70410958904108</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="52">
@@ -987,10 +987,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>321.4072561461187</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C52" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="53">
@@ -998,10 +998,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>56.0822782831051</v>
+        <v>16.01973821957838</v>
       </c>
       <c r="C53" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="54">
@@ -1009,10 +1009,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>1408.653961863009</v>
+        <v>8.123276521271785</v>
       </c>
       <c r="C54" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="55">
@@ -1020,10 +1020,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>44.65836186301378</v>
+        <v>16.00531296555599</v>
       </c>
       <c r="C55" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="56">
@@ -1031,10 +1031,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>42.30956186301378</v>
+        <v>18.30562259075525</v>
       </c>
       <c r="C56" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="57">
@@ -1042,10 +1042,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>63.90537932420099</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C57" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="58">
@@ -1053,10 +1053,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>83.40119678538825</v>
+        <v>1.220187034112284</v>
       </c>
       <c r="C58" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="59">
@@ -1064,10 +1064,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>64.03417932420099</v>
+        <v>38.00866846263946</v>
       </c>
       <c r="C59" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="60">
@@ -1075,10 +1075,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>62.60297932420109</v>
+        <v>7.165118641182524</v>
       </c>
       <c r="C60" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="61">
@@ -1086,10 +1086,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>22.71374440182657</v>
+        <v>1.262445602852295</v>
       </c>
       <c r="C61" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="62">
@@ -1097,10 +1097,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>122.505424803653</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C62" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="63">
@@ -1108,10 +1108,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>44.30956186301378</v>
+        <v>442.2227332753287</v>
       </c>
       <c r="C63" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="64">
@@ -1119,10 +1119,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>15.39867240182657</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C64" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="65">
@@ -1130,10 +1130,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>42.29232402888088</v>
+        <v>6.173733407730342</v>
       </c>
       <c r="C65" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="66">
@@ -1141,10 +1141,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>22.71374440182657</v>
+        <v>0.9168170385770986</v>
       </c>
       <c r="C66" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="67">
@@ -1152,10 +1152,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>317.9188185388129</v>
+        <v>11.84689690433992</v>
       </c>
       <c r="C67" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="68">
@@ -1163,10 +1163,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>59.98456977421726</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C68" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="69">
@@ -1174,10 +1174,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>44.42076186301379</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C69" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="70">
@@ -1185,10 +1185,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>44.30956186301378</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C70" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="71">
@@ -1196,10 +1196,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>22.71374440182657</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C71" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="72">
@@ -1207,10 +1207,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>24.36494440182657</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C72" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="73">
@@ -1218,10 +1218,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C73" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="74">
@@ -1229,10 +1229,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>2260.089561863014</v>
+        <v>20.26915340463887</v>
       </c>
       <c r="C74" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="75">
@@ -1240,10 +1240,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>66.12537932420101</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C75" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="76">
@@ -1251,10 +1251,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>41.96076186301378</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C76" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="77">
@@ -1262,10 +1262,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>22.36494440182657</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C77" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="78">
@@ -1273,10 +1273,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>54.94737932420099</v>
+        <v>15.62059268587737</v>
       </c>
       <c r="C78" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="79">
@@ -1284,10 +1284,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>59.442979324201</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C79" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="80">
@@ -1295,10 +1295,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>80.23628252054804</v>
+        <v>0.8440351885302357</v>
       </c>
       <c r="C80" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="81">
@@ -1306,10 +1306,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>73.93208880365306</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C81" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="82">
@@ -1317,10 +1317,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>2.769126940639353</v>
+        <v>16.02738211584657</v>
       </c>
       <c r="C82" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="83">
@@ -1328,10 +1328,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>66.12537932420102</v>
+        <v>16.01973821957838</v>
       </c>
       <c r="C83" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="84">
@@ -1339,10 +1339,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>2.769126940639353</v>
+        <v>26.00854810807744</v>
       </c>
       <c r="C84" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="85">
@@ -1350,10 +1350,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>22.71374440182657</v>
+        <v>1016.54893821958</v>
       </c>
       <c r="C85" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="86">
@@ -1361,10 +1361,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C86" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="87">
@@ -1372,10 +1372,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>24.36494440182657</v>
+        <v>0.9123036911640793</v>
       </c>
       <c r="C87" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="88">
@@ -1383,10 +1383,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>61.65657932420099</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C88" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="89">
@@ -1394,10 +1394,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>42.72661073972611</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C89" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="90">
@@ -1405,10 +1405,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>24.36494440182657</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C90" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="91">
@@ -1416,10 +1416,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>41.96076186301378</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C91" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="92">
@@ -1427,10 +1427,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>66.25417932420099</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C92" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="93">
@@ -1438,10 +1438,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>67.37657932420099</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C93" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="94">
@@ -1449,10 +1449,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>44.33736186301378</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C94" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="95">
@@ -1460,10 +1460,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>20.39374440182657</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C95" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="96">
@@ -1471,10 +1471,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>2.769126940639353</v>
+        <v>12.97629690433991</v>
       </c>
       <c r="C96" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="97">
@@ -1482,10 +1482,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>22.71374440182657</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C97" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="98">
@@ -1493,10 +1493,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>24.71374440182657</v>
+        <v>0.7846308363044727</v>
       </c>
       <c r="C98" t="n">
-        <v>2.769126940639353</v>
+        <v>0.7846308363044727</v>
       </c>
     </row>
     <row r="99">
@@ -1504,10 +1504,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>241.6677070684932</v>
+        <v>0.6899508087587628</v>
       </c>
       <c r="C99" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="100">
@@ -1515,10 +1515,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>112.7556330958905</v>
+        <v>15.75255762605163</v>
       </c>
       <c r="C100" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="101">
@@ -1526,10 +1526,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>59.73417932420102</v>
+        <v>14.10808061019829</v>
       </c>
       <c r="C101" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="102">
@@ -1537,10 +1537,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>18.49088463171162</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C102" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="103">
@@ -1548,10 +1548,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>41.80116186301379</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C103" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="104">
@@ -1559,10 +1559,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>40.90956186301378</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C104" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="105">
@@ -1570,10 +1570,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>41.7119618630138</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C105" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="106">
@@ -1581,10 +1581,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>64.602979324201</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C106" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="107">
@@ -1592,10 +1592,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>37.65947981173173</v>
+        <v>15.43982305086091</v>
       </c>
       <c r="C107" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="108">
@@ -1603,10 +1603,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>53.32700827397266</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C108" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="109">
@@ -1614,10 +1614,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>24.36494440182657</v>
+        <v>15.96902305086091</v>
       </c>
       <c r="C109" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="110">
@@ -1625,10 +1625,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>85.5011967853882</v>
+        <v>20.71382745276164</v>
       </c>
       <c r="C110" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="111">
@@ -1636,10 +1636,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>42.04956186301381</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C111" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="112">
@@ -1647,10 +1647,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>57.20497932420099</v>
+        <v>11.27232546515823</v>
       </c>
       <c r="C112" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="113">
@@ -1658,10 +1658,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>30.92976186301378</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C113" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="114">
@@ -1669,10 +1669,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>37.01916186301378</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C114" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="115">
@@ -1680,10 +1680,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C115" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="116">
@@ -1691,10 +1691,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>43.96076186301379</v>
+        <v>15.33321016813636</v>
       </c>
       <c r="C116" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="117">
@@ -1702,10 +1702,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>279.9167454246576</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C117" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="118">
@@ -1713,10 +1713,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>22.71374440182657</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C118" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="119">
@@ -1724,10 +1724,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>44.30956186301378</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C119" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="120">
@@ -1735,10 +1735,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>44.30956186301378</v>
+        <v>11.44293046208716</v>
       </c>
       <c r="C120" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="121">
@@ -1746,10 +1746,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>69.77657932420101</v>
+        <v>17.99631755566564</v>
       </c>
       <c r="C121" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="122">
@@ -1757,10 +1757,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>37.33436186301378</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C122" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="123">
@@ -1768,10 +1768,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>2.769126940639353</v>
+        <v>4584.456855612952</v>
       </c>
       <c r="C123" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="124">
@@ -1779,10 +1779,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>42.30956186301378</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C124" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="125">
@@ -1790,10 +1790,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>22.71374440182657</v>
+        <v>1.451191541576302</v>
       </c>
       <c r="C125" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="126">
@@ -1801,10 +1801,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>40.18956186301378</v>
+        <v>5.176574270373106</v>
       </c>
       <c r="C126" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="127">
@@ -1812,10 +1812,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>60.81557932420101</v>
+        <v>19.14750453115118</v>
       </c>
       <c r="C127" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="128">
@@ -1823,10 +1823,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>77.62759678538821</v>
+        <v>48.06260824245606</v>
       </c>
       <c r="C128" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="129">
@@ -1834,10 +1834,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>44.65836186301379</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C129" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="130">
@@ -1845,10 +1845,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>51.456179324201</v>
+        <v>15.43982305086091</v>
       </c>
       <c r="C130" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="131">
@@ -1856,10 +1856,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>26.23614440182656</v>
+        <v>8.532482510748766</v>
       </c>
       <c r="C131" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="132">
@@ -1867,10 +1867,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>26.23614440182656</v>
+        <v>14.82902305086091</v>
       </c>
       <c r="C132" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="133">
@@ -1878,10 +1878,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>2859.076579324201</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C133" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="134">
@@ -1889,10 +1889,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>2.769126940639353</v>
+        <v>60.24092819341218</v>
       </c>
       <c r="C134" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="135">
@@ -1900,10 +1900,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>46.30956186301378</v>
+        <v>30.77596543757803</v>
       </c>
       <c r="C135" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="136">
@@ -1911,10 +1911,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>137.5925550684933</v>
+        <v>4257.377757977691</v>
       </c>
       <c r="C136" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="137">
@@ -1922,10 +1922,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>19.70174440182657</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C137" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="138">
@@ -1933,10 +1933,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>103.2568165698958</v>
+        <v>21.01100530017244</v>
       </c>
       <c r="C138" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="139">
@@ -1944,10 +1944,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>22.71374440182657</v>
+        <v>1.26541785636588</v>
       </c>
       <c r="C139" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="140">
@@ -1955,10 +1955,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>102.1247045691561</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C140" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="141">
@@ -1966,10 +1966,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>2.769126940639353</v>
+        <v>30.04096543757803</v>
       </c>
       <c r="C141" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="142">
@@ -1977,10 +1977,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>42.65836186301378</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C142" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="143">
@@ -1988,10 +1988,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>112.5073264657535</v>
+        <v>349.3745995839194</v>
       </c>
       <c r="C143" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="144">
@@ -1999,10 +1999,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>22.71374440182657</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C144" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="145">
@@ -2010,10 +2010,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>165.7395453150686</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C145" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="146">
@@ -2021,10 +2021,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>22.36494440182657</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C146" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="147">
@@ -2032,10 +2032,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>22.36494440182657</v>
+        <v>15.91255246262562</v>
       </c>
       <c r="C147" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="148">
@@ -2043,10 +2043,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>40.54076186301378</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C148" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="149">
@@ -2054,10 +2054,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>78.30538845662107</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C149" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="150">
@@ -2065,10 +2065,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>22.71374440182657</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C150" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="151">
@@ -2076,10 +2076,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>21.22494440182657</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C151" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="152">
@@ -2087,10 +2087,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>42.65836186301378</v>
+        <v>0.6161059776901788</v>
       </c>
       <c r="C152" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="153">
@@ -2098,10 +2098,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>66.25417932420102</v>
+        <v>0.5999325690048727</v>
       </c>
       <c r="C153" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="154">
@@ -2109,10 +2109,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>24.36494440182657</v>
+        <v>20.18902305086091</v>
       </c>
       <c r="C154" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="155">
@@ -2120,10 +2120,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>64.25417932420099</v>
+        <v>1.286330367934081</v>
       </c>
       <c r="C155" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="156">
@@ -2131,10 +2131,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>41.71196186301378</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C156" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="157">
@@ -2142,10 +2142,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>42.65836186301383</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C157" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="158">
@@ -2153,10 +2153,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>44.65836186301379</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C158" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="159">
@@ -2164,10 +2164,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>41.86854451141562</v>
+        <v>6.333690420241348</v>
       </c>
       <c r="C159" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="160">
@@ -2175,10 +2175,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>44.3095618630138</v>
+        <v>3227.594023050861</v>
       </c>
       <c r="C160" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="161">
@@ -2186,10 +2186,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>71.27519559817364</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C161" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="162">
@@ -2197,10 +2197,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>2897.960761863013</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C162" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="163">
@@ -2208,10 +2208,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>22.36494440182657</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C163" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="164">
@@ -2219,10 +2219,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>65.90537932420099</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C164" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="165">
@@ -2230,10 +2230,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>83.84999678538821</v>
+        <v>0.1928806641437859</v>
       </c>
       <c r="C165" t="n">
-        <v>2.769126940639353</v>
+        <v>0.1928806641437859</v>
       </c>
     </row>
     <row r="166">
@@ -2241,10 +2241,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>56.82997932420099</v>
+        <v>0.1206609736284463</v>
       </c>
       <c r="C166" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="167">
@@ -2252,10 +2252,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>44.65836186301379</v>
+        <v>928.3184139327532</v>
       </c>
       <c r="C167" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="168">
@@ -2263,10 +2263,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>22.71374440182657</v>
+        <v>34.26006893991115</v>
       </c>
       <c r="C168" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="169">
@@ -2274,10 +2274,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>44.30956186301378</v>
+        <v>404.4966968595829</v>
       </c>
       <c r="C169" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="170">
@@ -2285,10 +2285,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>21.93374440182657</v>
+        <v>15.85106422301919</v>
       </c>
       <c r="C170" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="171">
@@ -2296,10 +2296,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>2.769126940639353</v>
+        <v>31.62961393275349</v>
       </c>
       <c r="C171" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="172">
@@ -2307,10 +2307,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>24.71374440182657</v>
+        <v>0.07251451328488656</v>
       </c>
       <c r="C172" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="173">
@@ -2318,10 +2318,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>77.12659678538822</v>
+        <v>10.99429987913854</v>
       </c>
       <c r="C173" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="174">
@@ -2329,10 +2329,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>44.65836186301379</v>
+        <v>11.15370863569181</v>
       </c>
       <c r="C174" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="175">
@@ -2340,10 +2340,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>44.30956186301378</v>
+        <v>4.705932515702115</v>
       </c>
       <c r="C175" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="176">
@@ -2351,10 +2351,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>43.96076186301378</v>
+        <v>0.07251451328488656</v>
       </c>
       <c r="C176" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="177">
@@ -2362,10 +2362,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>42.65836186301379</v>
+        <v>0.07251451328488656</v>
       </c>
       <c r="C177" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="178">
@@ -2373,10 +2373,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>89.53441424657545</v>
+        <v>5.493002318162935</v>
       </c>
       <c r="C178" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="179">
@@ -2384,10 +2384,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>104.5210142465754</v>
+        <v>0.07251451328488656</v>
       </c>
       <c r="C179" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="180">
@@ -2395,10 +2395,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>22.71374440182657</v>
+        <v>15.31999812701046</v>
       </c>
       <c r="C180" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="181">
@@ -2406,10 +2406,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>22.36494440182657</v>
+        <v>1.435114513284886</v>
       </c>
       <c r="C181" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="182">
@@ -2417,10 +2417,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>133.2616317077626</v>
+        <v>238.8448529571437</v>
       </c>
       <c r="C182" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="183">
@@ -2428,10 +2428,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>38.53536186301378</v>
+        <v>0.07251451328488656</v>
       </c>
       <c r="C183" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="184">
@@ -2439,10 +2439,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>339.1722102648403</v>
+        <v>14.33506422301919</v>
       </c>
       <c r="C184" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="185">
@@ -2450,10 +2450,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>161.7131188310504</v>
+        <v>929.5319759579863</v>
       </c>
       <c r="C185" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="186">
@@ -2461,10 +2461,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>46.18076186301378</v>
+        <v>0.07251451328488656</v>
       </c>
       <c r="C186" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="187">
@@ -2472,10 +2472,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>22.36494440182657</v>
+        <v>0.07251451328488656</v>
       </c>
       <c r="C187" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="188">
@@ -2483,10 +2483,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>22.71374440182657</v>
+        <v>1374.019213352222</v>
       </c>
       <c r="C188" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="189">
@@ -2494,10 +2494,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>22.71374440182657</v>
+        <v>6231.095830513285</v>
       </c>
       <c r="C189" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="190">
@@ -2505,10 +2505,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>42.3095618630138</v>
+        <v>16.92866422301919</v>
       </c>
       <c r="C190" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="191">
@@ -2516,10 +2516,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>22.71374440182657</v>
+        <v>0.07251451328488656</v>
       </c>
       <c r="C191" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="192">
@@ -2527,10 +2527,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>22.71374440182657</v>
+        <v>34.43717490836325</v>
       </c>
       <c r="C192" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="193">
@@ -2538,10 +2538,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>38.58556047532947</v>
+        <v>11.15370863569181</v>
       </c>
       <c r="C193" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="194">
@@ -2549,10 +2549,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
       <c r="C194" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="195">
@@ -2560,10 +2560,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>46.18076186301378</v>
+        <v>2.448368171821473</v>
       </c>
       <c r="C195" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="196">
@@ -2571,10 +2571,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>49.70316186301378</v>
+        <v>0.07251451328488656</v>
       </c>
       <c r="C196" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="197">
@@ -2582,10 +2582,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>57.135379324201</v>
+        <v>945.1831636424873</v>
       </c>
       <c r="C197" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="198">
@@ -2593,10 +2593,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>26.23614440182656</v>
+        <v>0.07251451328488656</v>
       </c>
       <c r="C198" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="199">
@@ -2604,10 +2604,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>35.67396186301378</v>
+        <v>0.07251451328488656</v>
       </c>
       <c r="C199" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
     <row r="200">
@@ -2615,10 +2615,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>43.45706151598182</v>
+        <v>0.07251451328488656</v>
       </c>
       <c r="C200" t="n">
-        <v>2.769126940639353</v>
+        <v>0.07251451328488656</v>
       </c>
     </row>
   </sheetData>

--- a/languageGP/test_problems/problem_1be.xlsx
+++ b/languageGP/test_problems/problem_1be.xlsx
@@ -426,10 +426,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>213344.9559043644</v>
+        <v>240873.9560153669</v>
       </c>
       <c r="C1" t="n">
-        <v>556.0799999999999</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2">
@@ -437,10 +437,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>594.5844330914376</v>
+        <v>824.605605054863</v>
       </c>
       <c r="C2" t="n">
-        <v>463.08</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
@@ -448,10 +448,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>489.9612000000003</v>
+        <v>300.9885400584489</v>
       </c>
       <c r="C3" t="n">
-        <v>436.08</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4">
@@ -459,10 +459,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3610.982784</v>
+        <v>242.5036</v>
       </c>
       <c r="C4" t="n">
-        <v>436.08</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -470,10 +470,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>415.1628739994768</v>
+        <v>196.3839341287796</v>
       </c>
       <c r="C5" t="n">
-        <v>89.3235894040987</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -481,10 +481,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>141.0516574759718</v>
+        <v>165.7586407954463</v>
       </c>
       <c r="C6" t="n">
-        <v>4.695369163695545</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="7">
@@ -492,10 +492,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>93.02426224647988</v>
+        <v>104.5650666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7846308363044727</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="8">
@@ -503,10 +503,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.79225006651121</v>
+        <v>100.0550780383743</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7846308363044727</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="9">
@@ -514,10 +514,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.8880411882087</v>
+        <v>81.04441916274854</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7846308363044727</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="10">
@@ -525,10 +525,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7846308363044727</v>
+        <v>98.78458413554101</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7846308363044727</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="11">
@@ -536,10 +536,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.84689690433992</v>
+        <v>104.5563962264151</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7846308363044727</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="12">
@@ -547,10 +547,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>2.16902108020691</v>
+        <v>81.50089811320753</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7846308363044727</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="13">
@@ -558,10 +558,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7846308363044727</v>
+        <v>91.9090803322041</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7846308363044727</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="14">
@@ -569,10 +569,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.01973821957838</v>
+        <v>205.192281370844</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7846308363044727</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="15">
@@ -580,10 +580,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.03681298612621</v>
+        <v>89.84472133758759</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7846308363044727</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="16">
@@ -591,10 +591,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>6.173733407730342</v>
+        <v>88.83269199168797</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7846308363044727</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="17">
@@ -602,10 +602,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25194.82659127052</v>
+        <v>75.1571336941788</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7846308363044727</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="18">
@@ -613,10 +613,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.187509622750345</v>
+        <v>89.52947279521653</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7846308363044727</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="19">
@@ -624,10 +624,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7846308363044727</v>
+        <v>89.50728503186096</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7846308363044727</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="20">
@@ -635,10 +635,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>261.2509105053884</v>
+        <v>78.54173040270491</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7846308363044727</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="21">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>16.01973821957838</v>
+        <v>93.69665966101701</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7846308363044727</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="22">
@@ -657,10 +657,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>138.6249869338654</v>
+        <v>74.53677966101694</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7846308363044727</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="23">
@@ -668,10 +668,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>34.34463083630447</v>
+        <v>77.09159999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7846308363044727</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="24">
@@ -679,10 +679,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>5.88868950529132</v>
+        <v>75.23999999999998</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7846308363044727</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="25">
@@ -690,10 +690,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>7.410805280927556</v>
+        <v>76.51999999999998</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7846308363044727</v>
+        <v>74.51999999999998</v>
       </c>
     </row>
     <row r="26">
@@ -701,10 +701,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>10.7913577308104</v>
+        <v>123.592016</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="27">
@@ -712,10 +712,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>18.51563623811018</v>
+        <v>49.42244000000003</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="28">
@@ -723,10 +723,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>1449.938040791004</v>
+        <v>3304.376260413765</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="29">
@@ -734,10 +734,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>31.29234956505689</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="30">
@@ -745,10 +745,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>16.86893821957838</v>
+        <v>24.47180000000003</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="31">
@@ -756,10 +756,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>33.40404560285229</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="32">
@@ -767,10 +767,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>63.96580843365224</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="33">
@@ -778,10 +778,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>13.66132832568415</v>
+        <v>24.47180000000003</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="34">
@@ -789,10 +789,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>19.10242114640765</v>
+        <v>24.47180000000003</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="35">
@@ -800,10 +800,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7846308363044727</v>
+        <v>25.18737600000003</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="36">
@@ -811,10 +811,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7846308363044727</v>
+        <v>36.33416400000003</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="37">
@@ -822,10 +822,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="38">
@@ -833,10 +833,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>15.9719247448793</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="39">
@@ -844,10 +844,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="40">
@@ -855,10 +855,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>31.0243615405096</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="41">
@@ -866,10 +866,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>51.26933821957839</v>
+        <v>26.47180000000003</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="42">
@@ -877,10 +877,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>15.97006153725412</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="43">
@@ -888,10 +888,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>58.80778700006625</v>
+        <v>47.13454800000003</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="44">
@@ -899,10 +899,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>1728.128248041877</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="45">
@@ -910,10 +910,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="46">
@@ -921,10 +921,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>17.02013821957838</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="47">
@@ -932,10 +932,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="48">
@@ -943,10 +943,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>5.51519682236449</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="49">
@@ -954,10 +954,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>1.039264982645936</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="50">
@@ -965,10 +965,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="51">
@@ -976,10 +976,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>1.622629755075161</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="52">
@@ -987,10 +987,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="53">
@@ -998,10 +998,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>16.01973821957838</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="54">
@@ -1009,10 +1009,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>8.123276521271785</v>
+        <v>26.25278400000003</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="55">
@@ -1020,10 +1020,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>16.00531296555599</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="56">
@@ -1031,10 +1031,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>18.30562259075525</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="57">
@@ -1042,10 +1042,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="58">
@@ -1053,10 +1053,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>1.220187034112284</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="59">
@@ -1064,10 +1064,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>38.00866846263946</v>
+        <v>23.61596400000003</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="60">
@@ -1075,10 +1075,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>7.165118641182524</v>
+        <v>23.61596400000003</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="61">
@@ -1086,10 +1086,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>1.262445602852295</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="62">
@@ -1097,10 +1097,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="63">
@@ -1108,10 +1108,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>442.2227332753287</v>
+        <v>44.02236400000003</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="64">
@@ -1119,10 +1119,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="65">
@@ -1130,10 +1130,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>6.173733407730342</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="66">
@@ -1141,10 +1141,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9168170385770986</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="67">
@@ -1152,10 +1152,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>11.84689690433992</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="68">
@@ -1163,10 +1163,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="69">
@@ -1174,10 +1174,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7846308363044727</v>
+        <v>50.87200200000003</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="70">
@@ -1185,10 +1185,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="71">
@@ -1196,10 +1196,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="72">
@@ -1207,10 +1207,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="73">
@@ -1218,10 +1218,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="74">
@@ -1229,10 +1229,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>20.26915340463887</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="75">
@@ -1240,10 +1240,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="76">
@@ -1251,10 +1251,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="77">
@@ -1262,10 +1262,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="78">
@@ -1273,10 +1273,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>15.62059268587737</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="79">
@@ -1284,10 +1284,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7846308363044727</v>
+        <v>23.80000000000003</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="80">
@@ -1295,10 +1295,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8440351885302357</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="81">
@@ -1306,10 +1306,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="82">
@@ -1317,10 +1317,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>16.02738211584657</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="83">
@@ -1328,10 +1328,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>16.01973821957838</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="84">
@@ -1339,10 +1339,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>26.00854810807744</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="85">
@@ -1350,10 +1350,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>1016.54893821958</v>
+        <v>24.47180000000003</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="86">
@@ -1361,10 +1361,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="87">
@@ -1372,10 +1372,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9123036911640793</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="88">
@@ -1383,10 +1383,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="89">
@@ -1394,10 +1394,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="90">
@@ -1405,10 +1405,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="91">
@@ -1416,10 +1416,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="92">
@@ -1427,10 +1427,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.95140000000003</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="93">
@@ -1438,10 +1438,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.95140000000003</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="94">
@@ -1449,10 +1449,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7846308363044727</v>
+        <v>24.47180000000003</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="95">
@@ -1460,10 +1460,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.7846308363044727</v>
+        <v>512.3080959999992</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="96">
@@ -1471,10 +1471,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>12.97629690433991</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="97">
@@ -1482,10 +1482,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="98">
@@ -1493,10 +1493,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7846308363044727</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="99">
@@ -1504,10 +1504,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6899508087587628</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="100">
@@ -1515,10 +1515,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>15.75255762605163</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="101">
@@ -1526,10 +1526,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>14.10808061019829</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="102">
@@ -1537,10 +1537,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="103">
@@ -1548,10 +1548,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1928806641437859</v>
+        <v>24.47180000000003</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="104">
@@ -1559,10 +1559,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="105">
@@ -1570,10 +1570,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.48153455657495</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="106">
@@ -1581,10 +1581,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.48153455657495</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="107">
@@ -1592,10 +1592,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>15.43982305086091</v>
+        <v>22.49126911314988</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="108">
@@ -1603,10 +1603,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1928806641437859</v>
+        <v>64.7205856697248</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="109">
@@ -1614,10 +1614,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>15.96902305086091</v>
+        <v>22.57180000000003</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="110">
@@ -1625,10 +1625,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>20.71382745276164</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="111">
@@ -1636,10 +1636,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="112">
@@ -1647,10 +1647,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>11.27232546515823</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="113">
@@ -1658,10 +1658,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="114">
@@ -1669,10 +1669,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="115">
@@ -1680,10 +1680,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="116">
@@ -1691,10 +1691,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>15.33321016813636</v>
+        <v>23.20436400000003</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="117">
@@ -1702,10 +1702,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="118">
@@ -1713,10 +1713,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1928806641437859</v>
+        <v>52.96152800000002</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="119">
@@ -1724,10 +1724,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="120">
@@ -1735,10 +1735,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>11.44293046208716</v>
+        <v>24.01180000000003</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="121">
@@ -1746,10 +1746,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>17.99631755566564</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="122">
@@ -1757,10 +1757,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="123">
@@ -1768,10 +1768,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>4584.456855612952</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="124">
@@ -1779,10 +1779,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="125">
@@ -1790,10 +1790,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>1.451191541576302</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="126">
@@ -1801,10 +1801,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>5.176574270373106</v>
+        <v>25.99071200000003</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="127">
@@ -1812,10 +1812,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>19.14750453115118</v>
+        <v>22.49180000000003</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="128">
@@ -1823,10 +1823,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>48.06260824245606</v>
+        <v>24.20140000000003</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="129">
@@ -1834,10 +1834,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1928806641437859</v>
+        <v>24.27180000000003</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="130">
@@ -1845,10 +1845,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>15.43982305086091</v>
+        <v>22.63400000000003</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="131">
@@ -1856,10 +1856,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>8.532482510748766</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="132">
@@ -1867,10 +1867,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>14.82902305086091</v>
+        <v>36.78236400000003</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="133">
@@ -1878,10 +1878,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1928806641437859</v>
+        <v>23.73180000000003</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="134">
@@ -1889,10 +1889,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>60.24092819341218</v>
+        <v>24.47180000000003</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="135">
@@ -1900,10 +1900,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>30.77596543757803</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="136">
@@ -1911,10 +1911,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>4257.377757977691</v>
+        <v>22.47180000000003</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1928806641437859</v>
+        <v>22.47180000000003</v>
       </c>
     </row>
     <row r="137">
@@ -1922,10 +1922,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1928806641437859</v>
+        <v>1082.286299999994</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
     </row>
     <row r="138">
@@ -1933,10 +1933,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>21.01100530017244</v>
+        <v>21.22639999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
     </row>
     <row r="139">
@@ -1944,10 +1944,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>1.26541785636588</v>
+        <v>17.78399999999998</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
     </row>
     <row r="140">
@@ -1955,10 +1955,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1928806641437859</v>
+        <v>16.70219999999997</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
     </row>
     <row r="141">
@@ -1966,10 +1966,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>30.04096543757803</v>
+        <v>15.62039999999995</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
     </row>
     <row r="142">
@@ -1977,10 +1977,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1928806641437859</v>
+        <v>36.72112799999995</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
     </row>
     <row r="143">
@@ -1988,10 +1988,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>349.3745995839194</v>
+        <v>13.99769999999994</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
     </row>
     <row r="144">
@@ -1999,10 +1999,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
     </row>
     <row r="145">
@@ -2010,10 +2010,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
     </row>
     <row r="146">
@@ -2021,10 +2021,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
     </row>
     <row r="147">
@@ -2032,10 +2032,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>15.91255246262562</v>
+        <v>13.45679999999993</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
     </row>
     <row r="148">
@@ -2043,10 +2043,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
     </row>
     <row r="149">
@@ -2054,10 +2054,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1928806641437859</v>
+        <v>27.75866399999993</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
     </row>
     <row r="150">
@@ -2065,10 +2065,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
     </row>
     <row r="151">
@@ -2076,10 +2076,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
     </row>
     <row r="152">
@@ -2087,10 +2087,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>0.6161059776901788</v>
+        <v>13.45679999999993</v>
       </c>
       <c r="C152" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
     </row>
     <row r="153">
@@ -2098,10 +2098,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.5999325690048727</v>
+        <v>13.45679999999993</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
     </row>
     <row r="154">
@@ -2109,10 +2109,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>20.18902305086091</v>
+        <v>13.45679999999993</v>
       </c>
       <c r="C154" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
     </row>
     <row r="155">
@@ -2120,10 +2120,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>1.286330367934081</v>
+        <v>13.45679999999993</v>
       </c>
       <c r="C155" t="n">
-        <v>0.1928806641437859</v>
+        <v>13.45679999999993</v>
       </c>
     </row>
     <row r="156">
@@ -2131,10 +2131,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1928806641437859</v>
+        <v>10.28953199999994</v>
       </c>
       <c r="C156" t="n">
-        <v>0.1928806641437859</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="157">
@@ -2142,10 +2142,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>0.1928806641437859</v>
+        <v>2.493179999999973</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1928806641437859</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="158">
@@ -2153,10 +2153,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>0.1928806641437859</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C158" t="n">
-        <v>0.1928806641437859</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="159">
@@ -2164,10 +2164,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>6.333690420241348</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C159" t="n">
-        <v>0.1928806641437859</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="160">
@@ -2175,10 +2175,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>3227.594023050861</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C160" t="n">
-        <v>0.1928806641437859</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="161">
@@ -2186,10 +2186,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>0.1928806641437859</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C161" t="n">
-        <v>0.1928806641437859</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="162">
@@ -2197,10 +2197,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1928806641437859</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C162" t="n">
-        <v>0.1928806641437859</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="163">
@@ -2208,10 +2208,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1928806641437859</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C163" t="n">
-        <v>0.1928806641437859</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="164">
@@ -2219,10 +2219,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1928806641437859</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C164" t="n">
-        <v>0.1928806641437859</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="165">
@@ -2230,10 +2230,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1928806641437859</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C165" t="n">
-        <v>0.1928806641437859</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="166">
@@ -2241,10 +2241,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1206609736284463</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C166" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="167">
@@ -2252,10 +2252,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>928.3184139327532</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C167" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="168">
@@ -2263,10 +2263,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>34.26006893991115</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C168" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="169">
@@ -2274,10 +2274,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>404.4966968595829</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C169" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="170">
@@ -2285,10 +2285,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>15.85106422301919</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C170" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="171">
@@ -2296,10 +2296,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>31.62961393275349</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C171" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="172">
@@ -2307,10 +2307,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C172" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="173">
@@ -2318,10 +2318,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>10.99429987913854</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C173" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="174">
@@ -2329,10 +2329,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>11.15370863569181</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C174" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="175">
@@ -2340,10 +2340,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>4.705932515702115</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C175" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="176">
@@ -2351,10 +2351,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C176" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="177">
@@ -2362,10 +2362,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C177" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="178">
@@ -2373,10 +2373,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>5.493002318162935</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C178" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="179">
@@ -2384,10 +2384,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C179" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="180">
@@ -2395,10 +2395,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>15.31999812701046</v>
+        <v>83.52099999999997</v>
       </c>
       <c r="C180" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="181">
@@ -2406,10 +2406,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>1.435114513284886</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C181" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="182">
@@ -2417,10 +2417,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>238.8448529571437</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C182" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="183">
@@ -2428,10 +2428,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C183" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="184">
@@ -2439,10 +2439,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>14.33506422301919</v>
+        <v>3.274999999999977</v>
       </c>
       <c r="C184" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="185">
@@ -2450,10 +2450,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>929.5319759579863</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C185" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="186">
@@ -2461,10 +2461,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>0.07251451328488656</v>
+        <v>17.02949999999998</v>
       </c>
       <c r="C186" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="187">
@@ -2472,10 +2472,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C187" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="188">
@@ -2483,10 +2483,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>1374.019213352222</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C188" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="189">
@@ -2494,10 +2494,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>6231.095830513285</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C189" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="190">
@@ -2505,10 +2505,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>16.92866422301919</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C190" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="191">
@@ -2516,10 +2516,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>0.07251451328488656</v>
+        <v>21.24949999999998</v>
       </c>
       <c r="C191" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="192">
@@ -2527,10 +2527,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>34.43717490836325</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C192" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="193">
@@ -2538,10 +2538,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>11.15370863569181</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C193" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="194">
@@ -2549,10 +2549,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C194" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="195">
@@ -2560,10 +2560,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>2.448368171821473</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C195" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="196">
@@ -2571,10 +2571,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C196" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="197">
@@ -2582,10 +2582,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>945.1831636424873</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C197" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="198">
@@ -2593,10 +2593,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C198" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="199">
@@ -2604,10 +2604,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C199" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
     <row r="200">
@@ -2615,10 +2615,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
       <c r="C200" t="n">
-        <v>0.07251451328488656</v>
+        <v>1.274999999999977</v>
       </c>
     </row>
   </sheetData>
